--- a/biology/Zoologie/Epitonium_scalare/Epitonium_scalare.xlsx
+++ b/biology/Zoologie/Epitonium_scalare/Epitonium_scalare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epitonium scalare ou Scalaire précieuse est une espèce de mollusques gastéropodes de la famille des Epitoniidae. C'est une rareté mythique recherchée par les collectionneurs de coquillages :  il est pêché de nos jours à grande profondeur par des chaluts dans les Philippines mais il est rarement remonté intact car il est fragile[1].
-Taille : 2,5 à 7 cm[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epitonium scalare ou Scalaire précieuse est une espèce de mollusques gastéropodes de la famille des Epitoniidae. C'est une rareté mythique recherchée par les collectionneurs de coquillages :  il est pêché de nos jours à grande profondeur par des chaluts dans les Philippines mais il est rarement remonté intact car il est fragile.
+Taille : 2,5 à 7 cm.
 Répartition : nord-ouest de l'océan Indien, Fidji, Japon, sud-ouest du Pacifique.
 Ce coquillage a des mâchoires coupantes et se nourrit d'anémones de mer et de coraux.
 </t>
@@ -514,7 +526,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mollusque figure sur une émission du Laos de 1993 (valeur faciale : 30 k) ainsi que sur un timbre du Japon 1989 (val. 62 yen).
 </t>
